--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>堆叠沙漏数</t>
   </si>
@@ -25,9 +25,15 @@
     <t>沙漏的每一层新增的channels数</t>
   </si>
   <si>
+    <t>训练次数</t>
+  </si>
+  <si>
     <t>训练时间</t>
   </si>
   <si>
+    <t>测试曲目</t>
+  </si>
+  <si>
     <t>测试时间</t>
   </si>
   <si>
@@ -49,17 +55,18 @@
     <t>伴奏GSAR</t>
   </si>
   <si>
-    <t>4分36秒</t>
-  </si>
-  <si>
-    <t>27分32秒</t>
+    <t>4分34秒</t>
+  </si>
+  <si>
+    <t>4分33秒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -668,8 +675,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -997,29 +1007,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.9464285714286" customWidth="1"/>
     <col min="2" max="2" width="21.7232142857143" customWidth="1"/>
     <col min="3" max="3" width="30.3571428571429" customWidth="1"/>
-    <col min="4" max="4" width="9.66964285714286" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.0892857142857" customWidth="1"/>
-    <col min="7" max="7" width="12.4910714285714" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="12.6428571428571" customWidth="1"/>
-    <col min="11" max="11" width="12.1964285714286" customWidth="1"/>
-    <col min="12" max="12" width="13.0892857142857" customWidth="1"/>
-    <col min="13" max="13" width="12.4910714285714" customWidth="1"/>
+    <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="9.66964285714286" customWidth="1"/>
+    <col min="6" max="6" width="9.66964285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.0892857142857" customWidth="1"/>
+    <col min="9" max="9" width="12.4910714285714" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="12.6428571428571" customWidth="1"/>
+    <col min="13" max="13" width="12.1964285714286" customWidth="1"/>
+    <col min="14" max="14" width="13.0892857142857" customWidth="1"/>
+    <col min="15" max="15" width="12.4910714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1047,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1053,8 +1065,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1064,30 +1082,39 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
+      <c r="D2">
+        <v>1000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>5.448</v>
-      </c>
-      <c r="G2">
-        <v>7.946</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>10.594</v>
+        <v>6.372</v>
       </c>
       <c r="I2">
-        <v>5.935</v>
+        <v>17.14</v>
       </c>
       <c r="J2">
-        <v>15.757</v>
+        <v>7.553</v>
       </c>
       <c r="K2">
-        <v>7.106</v>
-      </c>
+        <v>5.291</v>
+      </c>
+      <c r="L2">
+        <v>7.699</v>
+      </c>
+      <c r="M2">
+        <v>10.999</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5">
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
   <si>
     <t>堆叠沙漏数</t>
   </si>
@@ -25,6 +31,9 @@
     <t>沙漏的每一层新增的channels数</t>
   </si>
   <si>
+    <t>网络参数个数</t>
+  </si>
+  <si>
     <t>训练次数</t>
   </si>
   <si>
@@ -59,6 +68,18 @@
   </si>
   <si>
     <t>4分33秒</t>
+  </si>
+  <si>
+    <t>测试时每次喂4个+改用museval的bss_eval</t>
+  </si>
+  <si>
+    <t>测试速度显著提升</t>
+  </si>
+  <si>
+    <t>4分31秒</t>
+  </si>
+  <si>
+    <t>2分54秒</t>
   </si>
 </sst>
 </file>
@@ -1007,31 +1028,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.9464285714286" customWidth="1"/>
-    <col min="2" max="2" width="21.7232142857143" customWidth="1"/>
-    <col min="3" max="3" width="30.3571428571429" customWidth="1"/>
-    <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="9.66964285714286" customWidth="1"/>
-    <col min="6" max="6" width="9.66964285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.0892857142857" customWidth="1"/>
-    <col min="9" max="9" width="12.4910714285714" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="12.6428571428571" customWidth="1"/>
-    <col min="13" max="13" width="12.1964285714286" customWidth="1"/>
-    <col min="14" max="14" width="13.0892857142857" customWidth="1"/>
-    <col min="15" max="15" width="12.4910714285714" customWidth="1"/>
+    <col min="1" max="1" width="41.6607142857143" customWidth="1"/>
+    <col min="2" max="2" width="18.0089285714286" customWidth="1"/>
+    <col min="3" max="3" width="12.9464285714286" customWidth="1"/>
+    <col min="4" max="4" width="21.7232142857143" customWidth="1"/>
+    <col min="5" max="6" width="30.3571428571429" customWidth="1"/>
+    <col min="7" max="7" width="10.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="9.66964285714286" customWidth="1"/>
+    <col min="9" max="9" width="9.66964285714286" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="13.0892857142857" customWidth="1"/>
+    <col min="12" max="12" width="12.4910714285714" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="15" width="12.6428571428571" customWidth="1"/>
+    <col min="16" max="16" width="12.1964285714286" customWidth="1"/>
+    <col min="17" max="17" width="13.0892857142857" customWidth="1"/>
+    <col min="18" max="18" width="12.4910714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1070,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1056,7 +1079,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1071,50 +1094,109 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
+    <row r="2" spans="3:16">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>64</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="F2">
+        <v>1608396</v>
+      </c>
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
         <v>6.372</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>17.14</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>7.553</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>5.291</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>7.699</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>10.999</v>
       </c>
     </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="2"/>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1608396</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>8.746</v>
+      </c>
+      <c r="L3">
+        <v>16.754</v>
+      </c>
+      <c r="M3">
+        <v>9.946</v>
+      </c>
+      <c r="N3">
+        <v>8.103</v>
+      </c>
+      <c r="O3">
+        <v>12.049</v>
+      </c>
+      <c r="P3">
+        <v>11.555</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>备注</t>
   </si>
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>2分54秒</t>
+  </si>
+  <si>
+    <t>各项指标均有所提升，而人声的GSIR实际上也是往正常的方向发展，原先过高</t>
+  </si>
+  <si>
+    <t>5分38秒</t>
+  </si>
+  <si>
+    <t>3分05秒</t>
+  </si>
+  <si>
+    <t>GSIR迅速上升，其他变化不大</t>
+  </si>
+  <si>
+    <t>3分15秒</t>
+  </si>
+  <si>
+    <t>2分47秒</t>
   </si>
 </sst>
 </file>
@@ -1028,16 +1046,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="41.6607142857143" customWidth="1"/>
-    <col min="2" max="2" width="18.0089285714286" customWidth="1"/>
+    <col min="2" max="2" width="35.8660714285714" customWidth="1"/>
     <col min="3" max="3" width="12.9464285714286" customWidth="1"/>
     <col min="4" max="4" width="21.7232142857143" customWidth="1"/>
     <col min="5" max="6" width="30.3571428571429" customWidth="1"/>
@@ -1198,6 +1216,100 @@
         <v>11.555</v>
       </c>
     </row>
+    <row r="4" spans="2:16">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>17475276</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>8.314</v>
+      </c>
+      <c r="L4">
+        <v>11.953</v>
+      </c>
+      <c r="M4">
+        <v>11.489</v>
+      </c>
+      <c r="N4">
+        <v>8.724</v>
+      </c>
+      <c r="O4">
+        <v>13.681</v>
+      </c>
+      <c r="P4">
+        <v>11.315</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>8868038</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>8.556</v>
+      </c>
+      <c r="L5">
+        <v>15.173</v>
+      </c>
+      <c r="M5">
+        <v>10.136</v>
+      </c>
+      <c r="N5">
+        <v>8.033</v>
+      </c>
+      <c r="O5">
+        <v>12.277</v>
+      </c>
+      <c r="P5">
+        <v>11.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>备注</t>
   </si>
@@ -28,7 +28,7 @@
     <t>沙漏的第一层channels</t>
   </si>
   <si>
-    <t>沙漏的每一层新增的channels数</t>
+    <t>输出channels</t>
   </si>
   <si>
     <t>网络参数个数</t>
@@ -37,6 +37,12 @@
     <t>训练次数</t>
   </si>
   <si>
+    <t>学习率</t>
+  </si>
+  <si>
+    <t>显卡</t>
+  </si>
+  <si>
     <t>训练时间</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>伴奏GSAR</t>
   </si>
   <si>
+    <t>GTX1060(6GB)</t>
+  </si>
+  <si>
     <t>4分34秒</t>
   </si>
   <si>
@@ -98,6 +107,75 @@
   </si>
   <si>
     <t>2分47秒</t>
+  </si>
+  <si>
+    <t>各项指标均有上升</t>
+  </si>
+  <si>
+    <t>8分13秒</t>
+  </si>
+  <si>
+    <t>3分21秒</t>
+  </si>
+  <si>
+    <t>和3层差别不大，还有上升的空间</t>
+  </si>
+  <si>
+    <t>11分</t>
+  </si>
+  <si>
+    <t>3分58秒</t>
+  </si>
+  <si>
+    <t>测试数据集大了各项指标会下降，其他超参可能也会有这种情况</t>
+  </si>
+  <si>
+    <t>29分44秒</t>
+  </si>
+  <si>
+    <t>应该是不如递增的效果的</t>
+  </si>
+  <si>
+    <t>9分06秒</t>
+  </si>
+  <si>
+    <t>3分22秒</t>
+  </si>
+  <si>
+    <t>27分24秒</t>
+  </si>
+  <si>
+    <t>只预测伴奏遮罩</t>
+  </si>
+  <si>
+    <t>伴奏效果还不错，但是一减就把没预测号的全部归到人声那边了，效果特别差</t>
+  </si>
+  <si>
+    <t>3分30秒</t>
+  </si>
+  <si>
+    <t>2分39秒</t>
+  </si>
+  <si>
+    <t>只预测人声遮罩</t>
+  </si>
+  <si>
+    <t>伴奏效果很差，人声也很差</t>
+  </si>
+  <si>
+    <t>3分12秒</t>
+  </si>
+  <si>
+    <t>2分36秒</t>
+  </si>
+  <si>
+    <t>加大训练轮数和减小学习率</t>
+  </si>
+  <si>
+    <t>效果最好，说不定可以增加迭代次数，直到loss不再下降</t>
+  </si>
+  <si>
+    <t>32分</t>
   </si>
 </sst>
 </file>
@@ -714,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +800,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="32" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1046,33 +1127,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="41.6607142857143" customWidth="1"/>
-    <col min="2" max="2" width="35.8660714285714" customWidth="1"/>
+    <col min="2" max="2" width="76.3392857142857" customWidth="1"/>
     <col min="3" max="3" width="12.9464285714286" customWidth="1"/>
     <col min="4" max="4" width="21.7232142857143" customWidth="1"/>
-    <col min="5" max="6" width="30.3571428571429" customWidth="1"/>
-    <col min="7" max="7" width="10.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="9.66964285714286" customWidth="1"/>
-    <col min="9" max="9" width="9.66964285714286" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.0892857142857" customWidth="1"/>
-    <col min="12" max="12" width="12.4910714285714" customWidth="1"/>
+    <col min="5" max="7" width="30.3571428571429" customWidth="1"/>
+    <col min="8" max="9" width="10.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="15.6160714285714" customWidth="1"/>
+    <col min="11" max="11" width="9.66964285714286" customWidth="1"/>
+    <col min="12" max="12" width="9.66964285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="14.875" customWidth="1"/>
     <col min="15" max="15" width="12.6428571428571" customWidth="1"/>
     <col min="16" max="16" width="12.1964285714286" customWidth="1"/>
     <col min="17" max="17" width="13.0892857142857" customWidth="1"/>
     <col min="18" max="18" width="12.4910714285714" customWidth="1"/>
+    <col min="20" max="20" width="13.0892857142857" customWidth="1"/>
+    <col min="21" max="21" width="12.4910714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,44 +1167,53 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="3:16">
+    <row r="2" spans="3:19">
       <c r="C2">
         <v>2</v>
       </c>
@@ -1133,28 +1224,28 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>1608396</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1000</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>6.372</v>
-      </c>
-      <c r="L2">
-        <v>17.14</v>
-      </c>
-      <c r="M2">
-        <v>7.553</v>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="N2">
         <v>5.291</v>
@@ -1165,13 +1256,22 @@
       <c r="P2">
         <v>10.999</v>
       </c>
+      <c r="Q2">
+        <v>6.372</v>
+      </c>
+      <c r="R2">
+        <v>17.14</v>
+      </c>
+      <c r="S2">
+        <v>7.553</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1183,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>1608396</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>8.746</v>
-      </c>
-      <c r="L3">
-        <v>16.754</v>
-      </c>
-      <c r="M3">
-        <v>9.946</v>
+      <c r="M3" t="s">
+        <v>24</v>
       </c>
       <c r="N3">
         <v>8.103</v>
@@ -1215,10 +1315,19 @@
       <c r="P3">
         <v>11.555</v>
       </c>
+      <c r="Q3">
+        <v>8.746</v>
+      </c>
+      <c r="R3">
+        <v>16.754</v>
+      </c>
+      <c r="S3">
+        <v>9.946</v>
+      </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:19">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1230,28 +1339,28 @@
         <v>64</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>17475276</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1000</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>8.314</v>
-      </c>
-      <c r="L4">
-        <v>11.953</v>
-      </c>
-      <c r="M4">
-        <v>11.489</v>
+      <c r="M4" t="s">
+        <v>27</v>
       </c>
       <c r="N4">
         <v>8.724</v>
@@ -1262,10 +1371,19 @@
       <c r="P4">
         <v>11.315</v>
       </c>
+      <c r="Q4">
+        <v>8.314</v>
+      </c>
+      <c r="R4">
+        <v>11.953</v>
+      </c>
+      <c r="S4">
+        <v>11.489</v>
+      </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:19">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1277,28 +1395,28 @@
         <v>64</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>8868038</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1000</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1">
         <v>100</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5">
-        <v>8.556</v>
-      </c>
-      <c r="L5">
-        <v>15.173</v>
-      </c>
-      <c r="M5">
-        <v>10.136</v>
+      <c r="M5" t="s">
+        <v>30</v>
       </c>
       <c r="N5">
         <v>8.033</v>
@@ -1308,6 +1426,469 @@
       </c>
       <c r="P5">
         <v>11.32</v>
+      </c>
+      <c r="Q5">
+        <v>8.556</v>
+      </c>
+      <c r="R5">
+        <v>15.173</v>
+      </c>
+      <c r="S5">
+        <v>10.136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>26082514</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6">
+        <v>8.771</v>
+      </c>
+      <c r="O6">
+        <v>14.244</v>
+      </c>
+      <c r="P6">
+        <v>11.133</v>
+      </c>
+      <c r="Q6">
+        <v>8.636</v>
+      </c>
+      <c r="R6">
+        <v>15.478</v>
+      </c>
+      <c r="S6">
+        <v>10.112</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>34689752</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <v>8.862</v>
+      </c>
+      <c r="O7">
+        <v>13.439</v>
+      </c>
+      <c r="P7">
+        <v>11.765</v>
+      </c>
+      <c r="Q7">
+        <v>8.605</v>
+      </c>
+      <c r="R7">
+        <v>14.882</v>
+      </c>
+      <c r="S7">
+        <v>10.299</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>34689752</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1">
+        <v>800</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8">
+        <v>8.194</v>
+      </c>
+      <c r="O8">
+        <v>13.037</v>
+      </c>
+      <c r="P8">
+        <v>10.776</v>
+      </c>
+      <c r="Q8">
+        <v>7.57</v>
+      </c>
+      <c r="R8">
+        <v>12.84</v>
+      </c>
+      <c r="S8">
+        <v>9.989</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2955992</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9">
+        <v>7.874</v>
+      </c>
+      <c r="O9">
+        <v>11.857</v>
+      </c>
+      <c r="P9">
+        <v>11.219</v>
+      </c>
+      <c r="Q9">
+        <v>8.632</v>
+      </c>
+      <c r="R9">
+        <v>15.175</v>
+      </c>
+      <c r="S9">
+        <v>10.204</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2955992</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1">
+        <v>800</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10">
+        <v>7.575</v>
+      </c>
+      <c r="O10">
+        <v>11.476</v>
+      </c>
+      <c r="P10">
+        <v>10.761</v>
+      </c>
+      <c r="Q10">
+        <v>8.02</v>
+      </c>
+      <c r="R10">
+        <v>13.744</v>
+      </c>
+      <c r="S10">
+        <v>10.138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8867459</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11">
+        <v>-1.856</v>
+      </c>
+      <c r="O11">
+        <v>0.303</v>
+      </c>
+      <c r="P11">
+        <v>6.24</v>
+      </c>
+      <c r="Q11">
+        <v>8.048</v>
+      </c>
+      <c r="R11">
+        <v>13.966</v>
+      </c>
+      <c r="S11">
+        <v>9.903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>64</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8867459</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>8.537</v>
+      </c>
+      <c r="O12">
+        <v>13.158</v>
+      </c>
+      <c r="P12">
+        <v>11.386</v>
+      </c>
+      <c r="Q12">
+        <v>-1.599</v>
+      </c>
+      <c r="R12">
+        <v>-0.01</v>
+      </c>
+      <c r="S12">
+        <v>7.162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>34689752</v>
+      </c>
+      <c r="H13">
+        <v>15000</v>
+      </c>
+      <c r="I13">
+        <v>0.01</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.123611111111111</v>
+      </c>
+      <c r="L13" s="1">
+        <v>825</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13">
+        <v>10.649</v>
+      </c>
+      <c r="O13">
+        <v>16.66</v>
+      </c>
+      <c r="P13">
+        <v>12.402</v>
+      </c>
+      <c r="Q13">
+        <v>9.75</v>
+      </c>
+      <c r="R13">
+        <v>13.969</v>
+      </c>
+      <c r="S13">
+        <v>12.457</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+  <si>
+    <t>测试数据和训练数据对标堆叠沙漏网络论文：训练数据是175个片段，共计32723个可以训练的case，测试数据是825个片段</t>
+  </si>
   <si>
     <t>备注</t>
   </si>
@@ -792,12 +795,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1127,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E1" sqref="E1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1154,125 +1160,85 @@
     <col min="21" max="21" width="12.4910714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
+    <row r="1" spans="5:19">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="3:19">
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>64</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1608396</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>0.1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1">
-        <v>100</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2">
-        <v>5.291</v>
-      </c>
-      <c r="O2">
-        <v>7.699</v>
-      </c>
-      <c r="P2">
-        <v>10.999</v>
-      </c>
-      <c r="Q2">
-        <v>6.372</v>
-      </c>
-      <c r="R2">
-        <v>17.14</v>
-      </c>
-      <c r="S2">
-        <v>7.553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
+    <row r="3" spans="3:19">
       <c r="C3">
         <v>2</v>
       </c>
@@ -1295,39 +1261,42 @@
         <v>0.1</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="L3" s="1">
         <v>100</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
+      <c r="M3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="N3">
-        <v>8.103</v>
+        <v>5.291</v>
       </c>
       <c r="O3">
-        <v>12.049</v>
+        <v>7.699</v>
       </c>
       <c r="P3">
-        <v>11.555</v>
+        <v>10.999</v>
       </c>
       <c r="Q3">
-        <v>8.746</v>
+        <v>6.372</v>
       </c>
       <c r="R3">
-        <v>16.754</v>
+        <v>17.14</v>
       </c>
       <c r="S3">
-        <v>9.946</v>
+        <v>7.553</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1336,13 +1305,13 @@
         <v>64</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>17475276</v>
+        <v>1608396</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -1351,42 +1320,42 @@
         <v>0.1</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L4" s="1">
         <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N4">
-        <v>8.724</v>
+        <v>8.103</v>
       </c>
       <c r="O4">
-        <v>13.681</v>
+        <v>12.049</v>
       </c>
       <c r="P4">
-        <v>11.315</v>
+        <v>11.555</v>
       </c>
       <c r="Q4">
-        <v>8.314</v>
+        <v>8.746</v>
       </c>
       <c r="R4">
-        <v>11.953</v>
+        <v>16.754</v>
       </c>
       <c r="S4">
-        <v>11.489</v>
+        <v>9.946</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>64</v>
@@ -1398,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>8868038</v>
+        <v>17475276</v>
       </c>
       <c r="H5">
         <v>1000</v>
@@ -1407,42 +1376,42 @@
         <v>0.1</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>100</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>8.033</v>
+        <v>8.724</v>
       </c>
       <c r="O5">
-        <v>12.277</v>
+        <v>13.681</v>
       </c>
       <c r="P5">
-        <v>11.32</v>
+        <v>11.315</v>
       </c>
       <c r="Q5">
-        <v>8.556</v>
+        <v>8.314</v>
       </c>
       <c r="R5">
-        <v>15.173</v>
+        <v>11.953</v>
       </c>
       <c r="S5">
-        <v>10.136</v>
+        <v>11.489</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>64</v>
@@ -1454,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>26082514</v>
+        <v>8868038</v>
       </c>
       <c r="H6">
         <v>1000</v>
@@ -1463,42 +1432,42 @@
         <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N6">
-        <v>8.771</v>
+        <v>8.033</v>
       </c>
       <c r="O6">
-        <v>14.244</v>
+        <v>12.277</v>
       </c>
       <c r="P6">
-        <v>11.133</v>
+        <v>11.32</v>
       </c>
       <c r="Q6">
-        <v>8.636</v>
+        <v>8.556</v>
       </c>
       <c r="R6">
-        <v>15.478</v>
+        <v>15.173</v>
       </c>
       <c r="S6">
-        <v>10.112</v>
+        <v>10.136</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>64</v>
@@ -1510,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>34689752</v>
+        <v>26082514</v>
       </c>
       <c r="H7">
         <v>1000</v>
@@ -1519,39 +1488,39 @@
         <v>0.1</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1">
         <v>100</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7">
-        <v>8.862</v>
+        <v>8.771</v>
       </c>
       <c r="O7">
-        <v>13.439</v>
+        <v>14.244</v>
       </c>
       <c r="P7">
-        <v>11.765</v>
+        <v>11.133</v>
       </c>
       <c r="Q7">
-        <v>8.605</v>
+        <v>8.636</v>
       </c>
       <c r="R7">
-        <v>14.882</v>
+        <v>15.478</v>
       </c>
       <c r="S7">
-        <v>10.299</v>
+        <v>10.112</v>
       </c>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1575,39 +1544,39 @@
         <v>0.1</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="1">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8">
-        <v>8.194</v>
+        <v>8.862</v>
       </c>
       <c r="O8">
-        <v>13.037</v>
+        <v>13.439</v>
       </c>
       <c r="P8">
-        <v>10.776</v>
+        <v>11.765</v>
       </c>
       <c r="Q8">
-        <v>7.57</v>
+        <v>8.605</v>
       </c>
       <c r="R8">
-        <v>12.84</v>
+        <v>14.882</v>
       </c>
       <c r="S8">
-        <v>9.989</v>
+        <v>10.299</v>
       </c>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1616,13 +1585,13 @@
         <v>64</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>2955992</v>
+        <v>34689752</v>
       </c>
       <c r="H9">
         <v>1000</v>
@@ -1631,37 +1600,40 @@
         <v>0.1</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1">
+        <v>800</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9">
+        <v>8.194</v>
+      </c>
+      <c r="O9">
+        <v>13.037</v>
+      </c>
+      <c r="P9">
+        <v>10.776</v>
+      </c>
+      <c r="Q9">
+        <v>7.57</v>
+      </c>
+      <c r="R9">
+        <v>12.84</v>
+      </c>
+      <c r="S9">
+        <v>9.989</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="1">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9">
-        <v>7.874</v>
-      </c>
-      <c r="O9">
-        <v>11.857</v>
-      </c>
-      <c r="P9">
-        <v>11.219</v>
-      </c>
-      <c r="Q9">
-        <v>8.632</v>
-      </c>
-      <c r="R9">
-        <v>15.175</v>
-      </c>
-      <c r="S9">
-        <v>10.204</v>
-      </c>
-    </row>
-    <row r="10" spans="3:19">
       <c r="C10">
         <v>4</v>
       </c>
@@ -1684,57 +1656,51 @@
         <v>0.1</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" s="1">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s">
         <v>42</v>
       </c>
       <c r="N10">
-        <v>7.575</v>
+        <v>7.874</v>
       </c>
       <c r="O10">
-        <v>11.476</v>
+        <v>11.857</v>
       </c>
       <c r="P10">
-        <v>10.761</v>
+        <v>11.219</v>
       </c>
       <c r="Q10">
-        <v>8.02</v>
+        <v>8.632</v>
       </c>
       <c r="R10">
-        <v>13.744</v>
+        <v>15.175</v>
       </c>
       <c r="S10">
-        <v>10.138</v>
+        <v>10.204</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
+    <row r="11" spans="3:19">
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>64</v>
       </c>
       <c r="E11">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>8867459</v>
+        <v>2955992</v>
       </c>
       <c r="H11">
         <v>1000</v>
@@ -1743,42 +1709,42 @@
         <v>0.1</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N11">
-        <v>-1.856</v>
+        <v>7.575</v>
       </c>
       <c r="O11">
-        <v>0.303</v>
+        <v>11.476</v>
       </c>
       <c r="P11">
-        <v>6.24</v>
+        <v>10.761</v>
       </c>
       <c r="Q11">
-        <v>8.048</v>
+        <v>8.02</v>
       </c>
       <c r="R11">
-        <v>13.966</v>
+        <v>13.744</v>
       </c>
       <c r="S11">
-        <v>9.903</v>
+        <v>10.138</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1802,45 +1768,45 @@
         <v>0.1</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L12" s="1">
         <v>100</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N12">
-        <v>8.537</v>
+        <v>-1.856</v>
       </c>
       <c r="O12">
-        <v>13.158</v>
+        <v>0.303</v>
       </c>
       <c r="P12">
-        <v>11.386</v>
+        <v>6.24</v>
       </c>
       <c r="Q12">
-        <v>-1.599</v>
+        <v>8.048</v>
       </c>
       <c r="R12">
-        <v>-0.01</v>
+        <v>13.966</v>
       </c>
       <c r="S12">
-        <v>7.162</v>
+        <v>9.903</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>64</v>
@@ -1849,49 +1815,111 @@
         <v>64</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8867459</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13">
+        <v>8.537</v>
+      </c>
+      <c r="O13">
+        <v>13.158</v>
+      </c>
+      <c r="P13">
+        <v>11.386</v>
+      </c>
+      <c r="Q13">
+        <v>-1.599</v>
+      </c>
+      <c r="R13">
+        <v>-0.01</v>
+      </c>
+      <c r="S13">
+        <v>7.162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>64</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>34689752</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>15000</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>0.01</v>
       </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="4">
         <v>0.123611111111111</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <v>825</v>
       </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13">
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14">
         <v>10.649</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>16.66</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>12.402</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>9.75</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <v>13.969</v>
       </c>
-      <c r="S13">
+      <c r="S14">
         <v>12.457</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:S1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
-  <si>
-    <t>测试数据和训练数据对标堆叠沙漏网络论文：训练数据是175个片段，共计32723个可以训练的case，测试数据是825个片段</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+  <si>
+    <t>测试数据和训练数据对标堆叠沙漏网络论文：训练数据是175个片段，共计32723个可以训练的case，测试数据是825个片段，一次训练batch为4</t>
   </si>
   <si>
     <t>备注</t>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>32分</t>
+  </si>
+  <si>
+    <t>效果无明显提升，说明接近饱和</t>
+  </si>
+  <si>
+    <t>32分15秒</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1916,6 +1922,62 @@
         <v>12.457</v>
       </c>
     </row>
+    <row r="15" spans="2:19">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>34689752</v>
+      </c>
+      <c r="H15">
+        <v>30000</v>
+      </c>
+      <c r="I15">
+        <v>0.01</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.245833333333333</v>
+      </c>
+      <c r="L15" s="1">
+        <v>825</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15">
+        <v>10.645</v>
+      </c>
+      <c r="O15">
+        <v>16.839</v>
+      </c>
+      <c r="P15">
+        <v>12.323</v>
+      </c>
+      <c r="Q15">
+        <v>9.868</v>
+      </c>
+      <c r="R15">
+        <v>14.621</v>
+      </c>
+      <c r="S15">
+        <v>12.257</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:S1"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>测试数据和训练数据对标堆叠沙漏网络论文：训练数据是175个片段，共计32723个可以训练的case，测试数据是825个片段，一次训练batch为4</t>
   </si>
@@ -172,6 +172,15 @@
     <t>2分36秒</t>
   </si>
   <si>
+    <t>预测end-to-end，直接预测人声而不是人声相对原混合音频的遮罩</t>
+  </si>
+  <si>
+    <t>网络输出全为0，无法训练</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>加大训练轮数和减小学习率</t>
   </si>
   <si>
@@ -185,6 +194,36 @@
   </si>
   <si>
     <t>32分15秒</t>
+  </si>
+  <si>
+    <t>在服务器上跑的</t>
+  </si>
+  <si>
+    <t>效果不如上面这一组</t>
+  </si>
+  <si>
+    <t>RTX2070(8GB)</t>
+  </si>
+  <si>
+    <t>约2-3小时</t>
+  </si>
+  <si>
+    <t>31分16秒</t>
+  </si>
+  <si>
+    <t>和论文模型一样</t>
+  </si>
+  <si>
+    <t>42分34秒</t>
+  </si>
+  <si>
+    <t>Paper中给出的数据</t>
+  </si>
+  <si>
+    <t>修改训练数据的选取方式（改为均匀采样），学习率改为0.01</t>
+  </si>
+  <si>
+    <t>32分27秒</t>
   </si>
 </sst>
 </file>
@@ -198,8 +237,16 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -656,152 +703,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,6 +865,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,15 +1189,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="41.6607142857143" customWidth="1"/>
+    <col min="1" max="1" width="61.1517857142857" customWidth="1"/>
     <col min="2" max="2" width="76.3392857142857" customWidth="1"/>
     <col min="3" max="3" width="12.9464285714286" customWidth="1"/>
     <col min="4" max="4" width="21.7232142857143" customWidth="1"/>
@@ -1871,7 +1921,7 @@
         <v>53</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>64</v>
@@ -1883,48 +1933,51 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>34689752</v>
+        <v>8867459</v>
       </c>
       <c r="H14">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="I14">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="4">
-        <v>0.123611111111111</v>
-      </c>
-      <c r="L14" s="1">
-        <v>825</v>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
       </c>
       <c r="M14" t="s">
         <v>54</v>
       </c>
-      <c r="N14">
-        <v>10.649</v>
-      </c>
-      <c r="O14">
-        <v>16.66</v>
-      </c>
-      <c r="P14">
-        <v>12.402</v>
-      </c>
-      <c r="Q14">
-        <v>9.75</v>
-      </c>
-      <c r="R14">
-        <v>13.969</v>
-      </c>
-      <c r="S14">
-        <v>12.457</v>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1942,7 +1995,7 @@
         <v>34689752</v>
       </c>
       <c r="H15">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="I15">
         <v>0.01</v>
@@ -1951,31 +2004,349 @@
         <v>19</v>
       </c>
       <c r="K15" s="4">
-        <v>0.245833333333333</v>
+        <v>0.123611111111111</v>
       </c>
       <c r="L15" s="1">
         <v>825</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N15">
+        <v>10.649</v>
+      </c>
+      <c r="O15">
+        <v>16.66</v>
+      </c>
+      <c r="P15">
+        <v>12.402</v>
+      </c>
+      <c r="Q15">
+        <v>9.75</v>
+      </c>
+      <c r="R15">
+        <v>13.969</v>
+      </c>
+      <c r="S15">
+        <v>12.457</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>34689752</v>
+      </c>
+      <c r="H16">
+        <v>30000</v>
+      </c>
+      <c r="I16">
+        <v>0.01</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.245833333333333</v>
+      </c>
+      <c r="L16" s="1">
+        <v>825</v>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16">
         <v>10.645</v>
       </c>
-      <c r="O15">
+      <c r="O16" s="6">
         <v>16.839</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>12.323</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <v>9.868</v>
       </c>
-      <c r="R15">
+      <c r="R16">
         <v>14.621</v>
       </c>
-      <c r="S15">
+      <c r="S16">
         <v>12.257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>34689752</v>
+      </c>
+      <c r="H17">
+        <v>15000</v>
+      </c>
+      <c r="I17">
+        <v>0.01</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="1">
+        <v>825</v>
+      </c>
+      <c r="M17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17">
+        <v>10.284</v>
+      </c>
+      <c r="O17">
+        <v>15.74</v>
+      </c>
+      <c r="P17">
+        <v>12.254</v>
+      </c>
+      <c r="Q17">
+        <v>9.819</v>
+      </c>
+      <c r="R17">
+        <v>14.159</v>
+      </c>
+      <c r="S17">
+        <v>12.299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>256</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>42752792</v>
+      </c>
+      <c r="H18">
+        <v>15000</v>
+      </c>
+      <c r="I18">
+        <v>0.01</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="1">
+        <v>825</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18">
+        <v>10.433</v>
+      </c>
+      <c r="O18">
+        <v>15.426</v>
+      </c>
+      <c r="P18" s="6">
+        <v>12.618</v>
+      </c>
+      <c r="Q18">
+        <v>9.772</v>
+      </c>
+      <c r="R18">
+        <v>13.745</v>
+      </c>
+      <c r="S18" s="6">
+        <v>12.642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>256</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>42752792</v>
+      </c>
+      <c r="H19">
+        <v>15000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19">
+        <v>10.51</v>
+      </c>
+      <c r="O19">
+        <v>16.01</v>
+      </c>
+      <c r="P19">
+        <v>12.53</v>
+      </c>
+      <c r="Q19">
+        <v>9.88</v>
+      </c>
+      <c r="R19">
+        <v>14.24</v>
+      </c>
+      <c r="S19">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>64</v>
+      </c>
+      <c r="E20">
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>34689752</v>
+      </c>
+      <c r="H20">
+        <v>15000</v>
+      </c>
+      <c r="I20">
+        <v>0.001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.117361111111111</v>
+      </c>
+      <c r="L20" s="1">
+        <v>825</v>
+      </c>
+      <c r="M20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="6">
+        <v>10.724</v>
+      </c>
+      <c r="O20">
+        <v>16.6</v>
+      </c>
+      <c r="P20">
+        <v>12.516</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>10.03</v>
+      </c>
+      <c r="R20" s="6">
+        <v>14.95</v>
+      </c>
+      <c r="S20">
+        <v>12.426</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>34689752</v>
+      </c>
+      <c r="H21">
+        <v>20000</v>
+      </c>
+      <c r="I21">
+        <v>0.001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.157638888888889</v>
+      </c>
+      <c r="L21" s="1">
+        <v>825</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700"/>
+    <workbookView windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>测试数据和训练数据对标堆叠沙漏网络论文：训练数据是175个片段，共计32723个可以训练的case，测试数据是825个片段，一次训练batch为4</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>32分27秒</t>
+  </si>
+  <si>
+    <t>31分17秒</t>
   </si>
 </sst>
 </file>
@@ -848,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,6 +868,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1191,8 +1197,8 @@
   <sheetPr/>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2192,7 +2198,7 @@
       <c r="O18">
         <v>15.426</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="7">
         <v>12.618</v>
       </c>
       <c r="Q18">
@@ -2201,7 +2207,7 @@
       <c r="R18">
         <v>13.745</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="7">
         <v>12.642</v>
       </c>
     </row>
@@ -2307,17 +2313,17 @@
       <c r="P20">
         <v>12.516</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="7">
         <v>10.03</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="7">
         <v>14.95</v>
       </c>
       <c r="S20">
         <v>12.426</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:19">
       <c r="C21">
         <v>4</v>
       </c>
@@ -2347,6 +2353,27 @@
       </c>
       <c r="L21" s="1">
         <v>825</v>
+      </c>
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="7">
+        <v>10.944</v>
+      </c>
+      <c r="O21" s="7">
+        <v>17.355</v>
+      </c>
+      <c r="P21">
+        <v>12.531</v>
+      </c>
+      <c r="Q21">
+        <v>9.916</v>
+      </c>
+      <c r="R21">
+        <v>14.259</v>
+      </c>
+      <c r="S21">
+        <v>12.601</v>
       </c>
     </row>
   </sheetData>
